--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,35 +724,91 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>590</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07-25-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Trần Thị Lệ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>48000000</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>48000000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>48000000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5550000</v>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>67000000</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>67000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>67000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7450000</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,35 +1467,91 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>590</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07-25-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Trần Thị Lệ</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>186730000</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>205730000</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
         <v>3000000</v>
       </c>
-      <c r="K12" t="n">
-        <v>189730000</v>
-      </c>
-      <c r="L12" t="n">
-        <v>176730000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>17673000</v>
+      <c r="K13" t="n">
+        <v>208730000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>195730000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>19573000</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1729,7 @@
         <v>18000000</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>1080000</v>
@@ -2291,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>1220000</v>
@@ -2314,7 +2426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2339,7 +2451,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -2349,33 +2461,33 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>735000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại HỆ THỐNG</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2427857.142857143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>6150000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại HỆ THỐNG</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2385,27 +2497,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại HỆ THỐNG</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>12873000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại HỆ THỐNG</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2415,7 +2527,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại HỆ THỐNG</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2425,37 +2537,37 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại HỆ THỐNG</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2317500</v>
+        <v>-5000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4250000</v>
+        <v>2427857.142857143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2465,27 +2577,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10973000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1080000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2495,7 +2607,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2505,77 +2617,77 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1020000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2317500</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>2427857.142857143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>6300000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2585,7 +2697,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2595,7 +2707,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2605,151 +2717,61 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2317500</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1300000</v>
+        <v>19320857.14285714</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2827857.142857143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6300000</v>
+        <v>10227857.14285714</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tổng lương tại CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>15375500</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>2717500</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>10117500</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>28210500</v>
+        <v>32376571.42857143</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
@@ -822,7 +822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1523,35 +1523,91 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>595</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">trương thị lan </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>205730000</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>223730000</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>3000000</v>
       </c>
-      <c r="K13" t="n">
-        <v>208730000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>195730000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>19573000</v>
+      <c r="K14" t="n">
+        <v>226730000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>213730000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>21373000</v>
       </c>
     </row>
   </sheetData>
@@ -2426,7 +2482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2447,21 +2503,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ngày công</t>
+          <t>Tổng công tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp</t>
+          <t>Phụ cấp tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>770000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="4">
@@ -2471,7 +2527,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2427857.142857143</v>
+        <v>2648571.428571428</v>
       </c>
     </row>
     <row r="5">
@@ -2557,17 +2613,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2427857.142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Phụ cấp tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2577,7 +2633,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2587,17 +2643,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>400000</v>
+        <v>2648571.428571428</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2607,7 +2663,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2617,17 +2673,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2637,57 +2693,57 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2427857.142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Phụ cấp tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2697,7 +2753,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2707,71 +2763,131 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2648571.428571428</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19320857.14285714</v>
+        <v>8100000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2827857.142857143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10227857.14285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ứng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>19611571.42857143</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>3048571.428571428</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>12248571.42857143</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>32376571.42857143</v>
+      <c r="B40" t="n">
+        <v>34908714.28571428</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 7-2024.xlsx
@@ -2482,7 +2482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2623,7 +2623,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phụ cấp tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2633,27 +2633,27 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2648571.428571428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2648571.428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2663,27 +2663,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>400000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2693,7 +2693,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2703,7 +2703,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2713,27 +2713,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2743,47 +2743,47 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Phụ cấp tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2648571.428571428</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2648571.428571428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1300000</v>
+        <v>8100000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2793,17 +2793,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2813,80 +2813,60 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>200000</v>
+        <v>19611571.42857143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0</v>
+        <v>3048571.428571428</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19611571.42857143</v>
+        <v>12248571.42857143</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3048571.428571428</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>12248571.42857143</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tổng lương</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
         <v>34908714.28571428</v>
       </c>
     </row>
